--- a/Documents/TestPlan.xlsx
+++ b/Documents/TestPlan.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horse\source\repos\LocationTriggering\LocationTriggering\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horse\source\repos\LocationTriggering\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB253F3E-FDBA-4AC1-BB7F-63C28C9F837E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EBD11F-CFC8-44F2-9079-284A43213E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MapCoordinate" sheetId="1" r:id="rId1"/>
     <sheet name="BearingRange" sheetId="4" r:id="rId2"/>
     <sheet name="LocationTrigger" sheetId="2" r:id="rId3"/>
+    <sheet name="MapBoundingBox" sheetId="7" r:id="rId4"/>
+    <sheet name="LocationTriggerCollection" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="106">
   <si>
     <t>Test Plan</t>
   </si>
@@ -212,9 +214,6 @@
   </si>
   <si>
     <t>1.2.9</t>
-  </si>
-  <si>
-    <t>1.2.10</t>
   </si>
   <si>
     <t>Determine Accuracy of BearingRangeFrom Method</t>
@@ -264,9 +263,6 @@
     <t>1.3.9</t>
   </si>
   <si>
-    <t>1.3.10</t>
-  </si>
-  <si>
     <t>Determine Accuracy of constuctor and normalisation</t>
   </si>
   <si>
@@ -289,6 +285,78 @@
   </si>
   <si>
     <t>BearingRangeEqualsTestData.txt</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
+  </si>
+  <si>
+    <t>1.5.4</t>
+  </si>
+  <si>
+    <t>1.5.5</t>
+  </si>
+  <si>
+    <t>1.5.6</t>
+  </si>
+  <si>
+    <t>Ascertain the acccuracy of the LocationsAtPoint method</t>
+  </si>
+  <si>
+    <t>Ascertain the acccuracy of the LocationsInDirection method</t>
+  </si>
+  <si>
+    <t>Ascertain the acccuracy of the LocationsInBearingRange method</t>
+  </si>
+  <si>
+    <t>Ascertain the acccuracy of the LocationsNear method</t>
+  </si>
+  <si>
+    <t>Ascertain the acccuracy of the ClosestLocations method</t>
+  </si>
+  <si>
+    <t>Ascertain the acccuracy of sorting as new triggers are added</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>1.4.3</t>
+  </si>
+  <si>
+    <t>1.4.4</t>
+  </si>
+  <si>
+    <t>Ascertain the Accuracy of the constructor and auto calculated properties</t>
+  </si>
+  <si>
+    <t>Ascertain the Accuracy of the containsPoint method</t>
+  </si>
+  <si>
+    <t>Ascertain the accuracy of the BearingRangeFrom method</t>
+  </si>
+  <si>
+    <t>Ascertain the accuracy of the Equals method</t>
+  </si>
+  <si>
+    <t>BoundingBoxContainsPointTestData.txt</t>
+  </si>
+  <si>
+    <t>BoundingBoxConstructorTestData.txt</t>
+  </si>
+  <si>
+    <t>BoundingBoxBearingRangeTestData.txt</t>
+  </si>
+  <si>
+    <t>BoundingBoxEquals.txt</t>
   </si>
 </sst>
 </file>
@@ -323,8 +391,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -473,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -492,9 +559,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -513,9 +577,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -531,6 +592,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -572,9 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -887,22 +960,22 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="3" t="s">
         <v>52</v>
       </c>
@@ -911,24 +984,24 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="24" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="G7" s="24" t="s">
+      <c r="E7" s="29"/>
+      <c r="G7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="24" t="s">
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="26"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -955,16 +1028,16 @@
       <c r="I8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="28"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>44096</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -977,23 +1050,23 @@
         <v>16</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>44099</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="28"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>44096</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1006,25 +1079,25 @@
         <v>19</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>44099</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="28"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>44097</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1037,25 +1110,25 @@
         <v>19</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>44099</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="28"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>44097</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1068,23 +1141,23 @@
         <v>19</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>44099</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="28"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>44097</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1097,23 +1170,23 @@
         <v>19</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>44099</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="28"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>44097</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1129,20 +1202,20 @@
       <c r="G14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>44099</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="28"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>44098</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1158,14 +1231,14 @@
       <c r="G15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>44099</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="28"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1194,7 +1267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3776F0D0-08C9-4764-8F20-C5C07109F75C}">
   <dimension ref="A4:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1219,178 +1292,178 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="16" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="17" t="s">
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="24" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="G7" s="34" t="s">
+      <c r="E7" s="29"/>
+      <c r="G7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34" t="s">
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="34"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="32"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>44100</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="9">
+        <v>44100</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="9">
+        <v>44100</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="9">
+        <v>44100</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="32"/>
-    </row>
-    <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="10">
-        <v>44100</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="D12" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="32"/>
-    </row>
-    <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="10">
-        <v>44100</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="32"/>
-    </row>
-    <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="10">
-        <v>44100</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="32"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="35"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1414,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBF80AF-17FD-4998-91FA-A0F6C8EB3721}">
-  <dimension ref="A4:K19"/>
+  <dimension ref="A4:K18"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,23 +1514,23 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="13" t="s">
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="12" t="s">
         <v>2</v>
       </c>
       <c r="K6" s="5" t="s">
@@ -1465,24 +1538,24 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="24" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="G7" s="34" t="s">
+      <c r="E7" s="29"/>
+      <c r="G7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34" t="s">
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="34"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -1509,16 +1582,16 @@
       <c r="I8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="32"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="10">
+        <v>65</v>
+      </c>
+      <c r="B9" s="9">
         <v>44097</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1534,16 +1607,16 @@
       <c r="G9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="32"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="35"/>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="10">
+        <v>66</v>
+      </c>
+      <c r="B10" s="9">
         <v>44097</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1559,16 +1632,16 @@
       <c r="G10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="32"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="35"/>
     </row>
     <row r="11" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="10">
+        <v>67</v>
+      </c>
+      <c r="B11" s="9">
         <v>44097</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1584,16 +1657,16 @@
       <c r="G11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="32"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="10">
+        <v>68</v>
+      </c>
+      <c r="B12" s="9">
         <v>44097</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1609,16 +1682,16 @@
       <c r="G12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="32"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="35"/>
     </row>
     <row r="13" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="10">
+        <v>69</v>
+      </c>
+      <c r="B13" s="9">
         <v>44097</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1634,20 +1707,20 @@
       <c r="G13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="32"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="35"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="10">
+        <v>70</v>
+      </c>
+      <c r="B14" s="9">
         <v>44099</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>55</v>
@@ -1659,20 +1732,20 @@
       <c r="G14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="32"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="35"/>
     </row>
     <row r="15" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="10">
+        <v>71</v>
+      </c>
+      <c r="B15" s="9">
         <v>44099</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>65</v>
+      <c r="C15" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>56</v>
@@ -1684,93 +1757,74 @@
       <c r="G15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="32"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="10">
+        <v>72</v>
+      </c>
+      <c r="B16" s="9">
         <v>44099</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="36"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="10">
+        <v>73</v>
+      </c>
+      <c r="B17" s="9">
         <v>44099</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>64</v>
+      <c r="E17" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="10"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="36"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="10">
-        <v>44099</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="6"/>
-      <c r="G18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="32"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="38"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="16">
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J18:K18"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="G6:I6"/>
@@ -1781,4 +1835,477 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D07DFB7-1DE4-48D7-9A1C-68A3201B0612}">
+  <dimension ref="A4:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="G7" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="37"/>
+    </row>
+    <row r="8" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80A2EA8-97F7-4E6B-80A8-82F23FE2CBCE}">
+  <dimension ref="A4:K15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="G7" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="37"/>
+    </row>
+    <row r="8" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="35"/>
+    </row>
+    <row r="14" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/TestPlan.xlsx
+++ b/Documents/TestPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horse\source\repos\LocationTriggering\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EBD11F-CFC8-44F2-9079-284A43213E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D345496D-A095-4762-866A-7E4028609270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MapCoordinate" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="111">
   <si>
     <t>Test Plan</t>
   </si>
@@ -305,24 +305,6 @@
     <t>1.5.6</t>
   </si>
   <si>
-    <t>Ascertain the acccuracy of the LocationsAtPoint method</t>
-  </si>
-  <si>
-    <t>Ascertain the acccuracy of the LocationsInDirection method</t>
-  </si>
-  <si>
-    <t>Ascertain the acccuracy of the LocationsInBearingRange method</t>
-  </si>
-  <si>
-    <t>Ascertain the acccuracy of the LocationsNear method</t>
-  </si>
-  <si>
-    <t>Ascertain the acccuracy of the ClosestLocations method</t>
-  </si>
-  <si>
-    <t>Ascertain the acccuracy of sorting as new triggers are added</t>
-  </si>
-  <si>
     <t>1.4.1</t>
   </si>
   <si>
@@ -357,6 +339,39 @@
   </si>
   <si>
     <t>BoundingBoxEquals.txt</t>
+  </si>
+  <si>
+    <t>LocationsAtPointTestData.txt</t>
+  </si>
+  <si>
+    <t>LocationsInDirectionTestData.txt</t>
+  </si>
+  <si>
+    <t>Ascertain the accuracy of the LocationsAtPoint method</t>
+  </si>
+  <si>
+    <t>Ascertain the accuracy of the LocationsInDirection method</t>
+  </si>
+  <si>
+    <t>Ascertain the accuracy of the LocationsInBearingRange method</t>
+  </si>
+  <si>
+    <t>Ascertain the accuracy of the LocationsNear method</t>
+  </si>
+  <si>
+    <t>Ascertain the accuracy of the ClosestLocations method</t>
+  </si>
+  <si>
+    <t>Ascertain the accuracy of sorting as new triggers are added</t>
+  </si>
+  <si>
+    <t>LocationsInBearingRange.txt</t>
+  </si>
+  <si>
+    <t>NearbyLocationsTestData.txt</t>
+  </si>
+  <si>
+    <t>ClosestLocationsTestData.txt</t>
   </si>
 </sst>
 </file>
@@ -540,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -603,6 +618,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -960,22 +981,22 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="3" t="s">
         <v>52</v>
       </c>
@@ -984,24 +1005,24 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="27" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="G7" s="27" t="s">
+      <c r="E7" s="31"/>
+      <c r="G7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="27" t="s">
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="29"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -1028,10 +1049,10 @@
       <c r="I8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="31"/>
+      <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -1059,8 +1080,8 @@
       <c r="I9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="31"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -1088,10 +1109,10 @@
       <c r="I10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="31"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -1119,10 +1140,10 @@
       <c r="I11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="31"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -1150,8 +1171,8 @@
       <c r="I12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="31"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -1179,8 +1200,8 @@
       <c r="I13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="33"/>
-      <c r="K13" s="31"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="33"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -1208,8 +1229,8 @@
       <c r="I14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -1237,8 +1258,8 @@
       <c r="I15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="31"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1292,22 +1313,22 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="15" t="s">
         <v>2</v>
       </c>
@@ -1316,24 +1337,24 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="27" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="G7" s="37" t="s">
+      <c r="E7" s="31"/>
+      <c r="G7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37" t="s">
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="37"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
@@ -1360,10 +1381,10 @@
       <c r="I8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="35"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
@@ -1387,8 +1408,8 @@
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="35"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
@@ -1412,8 +1433,8 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="35"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
@@ -1437,8 +1458,8 @@
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="35"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
@@ -1462,8 +1483,8 @@
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="35"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1514,22 +1535,22 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="12" t="s">
         <v>2</v>
       </c>
@@ -1538,24 +1559,24 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="27" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="G7" s="37" t="s">
+      <c r="E7" s="31"/>
+      <c r="G7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37" t="s">
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="37"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -1582,10 +1603,10 @@
       <c r="I8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="35"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -1609,8 +1630,8 @@
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="35"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -1634,8 +1655,8 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="35"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -1659,8 +1680,8 @@
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="35"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -1684,8 +1705,8 @@
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="35"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -1709,8 +1730,8 @@
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="35"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -1734,8 +1755,8 @@
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="35"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -1759,8 +1780,8 @@
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="35"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
@@ -1784,8 +1805,8 @@
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
@@ -1809,8 +1830,8 @@
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1841,7 +1862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D07DFB7-1DE4-48D7-9A1C-68A3201B0612}">
   <dimension ref="A4:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1866,22 +1887,22 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="22" t="s">
         <v>2</v>
       </c>
@@ -1890,24 +1911,24 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="27" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="G7" s="37" t="s">
+      <c r="E7" s="31"/>
+      <c r="G7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37" t="s">
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="37"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
@@ -1934,26 +1955,26 @@
       <c r="I8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="35"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B9" s="9">
         <v>44102</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="21" t="s">
@@ -1961,24 +1982,24 @@
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="35"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B10" s="9">
         <v>44102</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="21" t="s">
@@ -1986,24 +2007,24 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="35"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B11" s="9">
         <v>44102</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="21" t="s">
@@ -2011,24 +2032,24 @@
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="35"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B12" s="9">
         <v>44102</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="21" t="s">
@@ -2036,8 +2057,8 @@
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="35"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2064,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80A2EA8-97F7-4E6B-80A8-82F23FE2CBCE}">
   <dimension ref="A4:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,22 +2110,22 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="22" t="s">
         <v>2</v>
       </c>
@@ -2113,24 +2134,24 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="27" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="G7" s="37" t="s">
+      <c r="E7" s="31"/>
+      <c r="G7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37" t="s">
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="37"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
@@ -2157,10 +2178,10 @@
       <c r="I8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="35"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
@@ -2170,18 +2191,22 @@
         <v>44102</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+        <v>102</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>100</v>
+      </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="21" t="s">
-        <v>40</v>
+      <c r="G9" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="35"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
@@ -2191,18 +2216,22 @@
         <v>44102</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+        <v>103</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>100</v>
+      </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="21" t="s">
-        <v>41</v>
+      <c r="G10" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="35"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
@@ -2212,18 +2241,22 @@
         <v>44102</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+        <v>104</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>108</v>
+      </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="21" t="s">
-        <v>42</v>
+      <c r="G11" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="35"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
@@ -2233,18 +2266,22 @@
         <v>44102</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+        <v>105</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>109</v>
+      </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="21" t="s">
-        <v>43</v>
+      <c r="G12" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="35"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
@@ -2254,18 +2291,22 @@
         <v>44102</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>110</v>
+      </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="21" t="s">
-        <v>44</v>
+      <c r="G13" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="35"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
@@ -2275,18 +2316,18 @@
         <v>44102</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="21" t="s">
-        <v>54</v>
+      <c r="G14" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="35"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/Documents/TestPlan.xlsx
+++ b/Documents/TestPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horse\source\repos\LocationTriggering\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D345496D-A095-4762-866A-7E4028609270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F499F7-F39E-4729-AC8D-12D88C924820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="106">
   <si>
     <t>Test Plan</t>
   </si>
@@ -171,9 +171,6 @@
     <t>1.2.4</t>
   </si>
   <si>
-    <t>1.2.5</t>
-  </si>
-  <si>
     <t>PointsInBoundingBox.txt</t>
   </si>
   <si>
@@ -198,22 +195,10 @@
     <t>Version No: 0.1</t>
   </si>
   <si>
-    <t>1.2.7</t>
-  </si>
-  <si>
-    <t>1.2.6</t>
-  </si>
-  <si>
     <t>AddPointTestData.xlsx</t>
   </si>
   <si>
     <t>RemovePointTestData.xlsx</t>
-  </si>
-  <si>
-    <t>1.2.8</t>
-  </si>
-  <si>
-    <t>1.2.9</t>
   </si>
   <si>
     <t>Determine Accuracy of BearingRangeFrom Method</t>
@@ -987,7 +972,7 @@
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>3</v>
@@ -998,7 +983,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="28"/>
       <c r="J6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>3</v>
@@ -1078,7 +1063,7 @@
         <v>44099</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" s="35"/>
       <c r="K9" s="33"/>
@@ -1107,10 +1092,10 @@
         <v>44099</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="35" t="s">
         <v>49</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>50</v>
       </c>
       <c r="K10" s="33"/>
     </row>
@@ -1138,10 +1123,10 @@
         <v>44099</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="35" t="s">
         <v>49</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>50</v>
       </c>
       <c r="K11" s="33"/>
     </row>
@@ -1169,7 +1154,7 @@
         <v>44099</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="35"/>
       <c r="K12" s="33"/>
@@ -1198,7 +1183,7 @@
         <v>44099</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13" s="35"/>
       <c r="K13" s="33"/>
@@ -1227,36 +1212,36 @@
         <v>44099</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="9">
         <v>44098</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="9">
         <v>44099</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J15" s="32"/>
       <c r="K15" s="33"/>
@@ -1394,13 +1379,13 @@
         <v>44100</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="16" t="s">
@@ -1419,13 +1404,13 @@
         <v>44100</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="16" t="s">
@@ -1444,13 +1429,13 @@
         <v>44100</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="16" t="s">
@@ -1469,13 +1454,13 @@
         <v>44100</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>81</v>
-      </c>
       <c r="E12" s="18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="16" t="s">
@@ -1511,7 +1496,7 @@
   <dimension ref="A4:K18"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="G9" sqref="G9:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,7 +1595,7 @@
     </row>
     <row r="9" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B9" s="9">
         <v>44097</v>
@@ -1626,7 +1611,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7"/>
@@ -1635,7 +1620,7 @@
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B10" s="9">
         <v>44097</v>
@@ -1651,7 +1636,7 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7"/>
@@ -1660,7 +1645,7 @@
     </row>
     <row r="11" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B11" s="9">
         <v>44097</v>
@@ -1669,14 +1654,14 @@
         <v>30</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
@@ -1685,7 +1670,7 @@
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B12" s="9">
         <v>44097</v>
@@ -1694,14 +1679,14 @@
         <v>31</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
@@ -1710,7 +1695,7 @@
     </row>
     <row r="13" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="9">
         <v>44097</v>
@@ -1719,14 +1704,14 @@
         <v>32</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
@@ -1735,23 +1720,23 @@
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B14" s="9">
         <v>44099</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
@@ -1760,23 +1745,23 @@
     </row>
     <row r="15" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B15" s="9">
         <v>44099</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7"/>
@@ -1785,23 +1770,23 @@
     </row>
     <row r="16" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B16" s="9">
         <v>44099</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7"/>
@@ -1810,23 +1795,23 @@
     </row>
     <row r="17" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B17" s="9">
         <v>44099</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="7"/>
@@ -1863,7 +1848,7 @@
   <dimension ref="A4:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G9" sqref="G9:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,23 +1947,23 @@
     </row>
     <row r="9" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B9" s="9">
         <v>44102</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>97</v>
-      </c>
       <c r="E9" s="21" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="21" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="21"/>
@@ -1987,23 +1972,23 @@
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B10" s="9">
         <v>44102</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="21" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="21"/>
@@ -2012,23 +1997,23 @@
     </row>
     <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B11" s="9">
         <v>44102</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="21" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="21"/>
@@ -2037,23 +2022,23 @@
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B12" s="9">
         <v>44102</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="21" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="21"/>
@@ -2185,23 +2170,23 @@
     </row>
     <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B9" s="9">
         <v>44102</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="24" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="21"/>
@@ -2210,23 +2195,23 @@
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B10" s="9">
         <v>44102</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="21"/>
@@ -2235,23 +2220,23 @@
     </row>
     <row r="11" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B11" s="9">
         <v>44102</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="21"/>
@@ -2260,23 +2245,23 @@
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B12" s="9">
         <v>44102</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="21"/>
@@ -2285,23 +2270,23 @@
     </row>
     <row r="13" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B13" s="9">
         <v>44102</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="24" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="21"/>
@@ -2310,19 +2295,19 @@
     </row>
     <row r="14" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B14" s="9">
         <v>44102</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="2"/>
       <c r="G14" s="24" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="21"/>

--- a/Documents/TestPlan.xlsx
+++ b/Documents/TestPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horse\source\repos\LocationTriggering\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F499F7-F39E-4729-AC8D-12D88C924820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96089536-6885-45CB-8480-53D1C64B6DCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -613,6 +613,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -622,26 +640,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -651,9 +654,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -941,7 +941,7 @@
   <dimension ref="A4:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:K7"/>
+      <selection activeCell="C14" sqref="C14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,22 +966,22 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="3" t="s">
         <v>51</v>
       </c>
@@ -990,24 +990,24 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="29" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="G7" s="29" t="s">
+      <c r="E7" s="27"/>
+      <c r="G7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="29" t="s">
+      <c r="H7" s="35"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="31"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -1034,10 +1034,10 @@
       <c r="I8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="33"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -1065,8 +1065,8 @@
       <c r="I9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="33"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -1094,10 +1094,10 @@
       <c r="I10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="33"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -1125,10 +1125,10 @@
       <c r="I11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="33"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -1156,8 +1156,8 @@
       <c r="I12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="33"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -1185,8 +1185,8 @@
       <c r="I13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="33"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -1214,8 +1214,8 @@
       <c r="I14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="33"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -1243,12 +1243,17 @@
       <c r="I15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="33"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
@@ -1258,11 +1263,6 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1274,7 +1274,7 @@
   <dimension ref="A4:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C12" sqref="C12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,22 +1298,22 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="15" t="s">
         <v>2</v>
       </c>
@@ -1322,24 +1322,24 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="29" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="G7" s="39" t="s">
+      <c r="E7" s="27"/>
+      <c r="G7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="39"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="8" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
@@ -1366,10 +1366,10 @@
       <c r="I8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="37"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
@@ -1393,8 +1393,8 @@
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="37"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
@@ -1418,8 +1418,8 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="37"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
@@ -1443,8 +1443,8 @@
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="37"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
@@ -1468,23 +1468,23 @@
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="37"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1496,7 +1496,7 @@
   <dimension ref="A4:K18"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G17"/>
+      <selection activeCell="C11" sqref="C11:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,22 +1520,22 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="12" t="s">
         <v>2</v>
       </c>
@@ -1544,24 +1544,24 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="29" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="G7" s="39" t="s">
+      <c r="E7" s="27"/>
+      <c r="G7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="39"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="8" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -1588,10 +1588,10 @@
       <c r="I8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="37"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -1615,8 +1615,8 @@
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="37"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -1640,8 +1640,8 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="37"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -1665,8 +1665,8 @@
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="37"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -1690,8 +1690,8 @@
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="37"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -1715,8 +1715,8 @@
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="37"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -1740,8 +1740,8 @@
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="37"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -1765,8 +1765,8 @@
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="37"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="32"/>
+      <c r="J16" s="28"/>
       <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1815,16 +1815,509 @@
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="32"/>
+      <c r="J17" s="28"/>
       <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D07DFB7-1DE4-48D7-9A1C-68A3201B0612}">
+  <dimension ref="A4:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="G7" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="8" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="38"/>
+    </row>
+    <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="38"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80A2EA8-97F7-4E6B-80A8-82F23FE2CBCE}">
+  <dimension ref="A4:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="G7" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="8" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="38"/>
+    </row>
+    <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="38"/>
+    </row>
+    <row r="13" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="38"/>
+    </row>
+    <row r="14" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="9">
+        <v>44102</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
@@ -1841,497 +2334,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D07DFB7-1DE4-48D7-9A1C-68A3201B0612}">
-  <dimension ref="A4:K13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
-    <col min="5" max="5" width="40.5703125" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="31"/>
-      <c r="G7" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="39"/>
-    </row>
-    <row r="8" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="37"/>
-    </row>
-    <row r="9" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="9">
-        <v>44102</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="37"/>
-    </row>
-    <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="9">
-        <v>44102</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="37"/>
-    </row>
-    <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="9">
-        <v>44102</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="37"/>
-    </row>
-    <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="9">
-        <v>44102</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80A2EA8-97F7-4E6B-80A8-82F23FE2CBCE}">
-  <dimension ref="A4:K15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
-    <col min="5" max="5" width="40.5703125" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="31"/>
-      <c r="G7" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="39"/>
-    </row>
-    <row r="8" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="37"/>
-    </row>
-    <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="9">
-        <v>44102</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="37"/>
-    </row>
-    <row r="10" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="9">
-        <v>44102</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="37"/>
-    </row>
-    <row r="11" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="9">
-        <v>44102</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="37"/>
-    </row>
-    <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="9">
-        <v>44102</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="9">
-        <v>44102</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="37"/>
-    </row>
-    <row r="14" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="9">
-        <v>44102</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="37"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>